--- a/biology/Médecine/Carl_Ludwig/Carl_Ludwig.xlsx
+++ b/biology/Médecine/Carl_Ludwig/Carl_Ludwig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Friedrich Wilhelm Ludwig, né le 29 décembre 1816 à Witzenhausen, mort le 23 avril 1895 à Leipzig est un médecin, anatomiste et physiologiste prussien, inventeur du kymographe et du stromuhr[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Friedrich Wilhelm Ludwig, né le 29 décembre 1816 à Witzenhausen, mort le 23 avril 1895 à Leipzig est un médecin, anatomiste et physiologiste prussien, inventeur du kymographe et du stromuhr
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Ludwig fait ses études de médecine à Marbourg et Erlangen. Il est professeur de physiologie en 1842 et d'anatomie comparée en 1846. Après avoir enseigné à Zurich et à Vienne il est nommé en 1865 à l'université de Leipzig, où il crée l'Institut de Physiologie auquel il laissera son nom. Ludwig se consacra à des domaines de recherche tels que la physiologie de la pression artérielle, l'excrétion urinaire et l'anesthésie. Il reçut la Médaille Copley en 1884. Ludwig fut le premier à observer la thermophorèse dans les mélanges liquides (« effet Soret » ou « effet Ludwig-Soret »). Depuis 1932 la Médaille Honoraire Carl Ludwig est décernée par la Société Allemande de Cardiologie à des chercheurs d'exception dans le domaine cardio-vasculaire.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Lehrebuch der Physiologie des Menschen, Winter (Leipzig &amp; Heidelberg), 1856, Texte intégral.
 (de) Lehrebuch der Physiologie des Menschen, Winter (Leipzig &amp; Heidelberg), 2e édition:
